--- a/Meteorologische Jahreszeiten.xlsx
+++ b/Meteorologische Jahreszeiten.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\01_MSc\opencampus_Data Science with R\Gruppenarbeit\Gruppe-4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3944FD05-E7A0-4705-AB03-C8A4B09CDBA1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="345" windowWidth="19875" windowHeight="7725"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,19 +30,19 @@
     <t>Winter</t>
   </si>
   <si>
-    <t>Frühling</t>
-  </si>
-  <si>
     <t>Sommer</t>
   </si>
   <si>
     <t>Herbst</t>
   </si>
+  <si>
+    <t>Fruehling</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -79,14 +85,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -124,9 +133,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -159,9 +168,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -194,9 +220,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -369,12 +412,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2376"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2362" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2375" sqref="F2375"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,13 +430,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -40778,7 +40821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -40790,7 +40833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
